--- a/memo.xlsx
+++ b/memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuram\Desktop\Programming\13_Rust\ahc\ahc023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2D5AF7-FA5A-4DDC-ADC8-6D632EC6083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE86AA5-6558-4001-B122-7E9379074641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14985" yWindow="75" windowWidth="35430" windowHeight="20280" xr2:uid="{A7B136F1-26C6-48A1-BAED-A0EA48E3885A}"/>
   </bookViews>
@@ -256,11 +256,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -595,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE99191-1CA3-4A8E-ACD9-6FFA0CAD4194}">
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -696,64 +693,64 @@
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -821,64 +818,64 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -946,64 +943,64 @@
       <c r="W4">
         <v>2</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AJ4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1071,64 +1068,64 @@
       <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AB5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AI5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AJ5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1196,64 +1193,64 @@
       <c r="W6">
         <v>4</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1321,64 +1318,64 @@
       <c r="W7">
         <v>5</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AB7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AM7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AN7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1443,64 +1440,64 @@
       <c r="T8">
         <v>6</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="X8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AB8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AC8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AE8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AF8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AI8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AM8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AN8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AN8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1565,64 +1562,64 @@
       <c r="T9">
         <v>6</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Y9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AB9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AF9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AH9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AL9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AM9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AN9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1687,64 +1684,64 @@
       <c r="T10">
         <v>23</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AB10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AG10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AI10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AK10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AM10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AO10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1809,64 +1806,64 @@
       <c r="T11">
         <v>23</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AB11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AC11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AD11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AE11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AF11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AH11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AI11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AJ11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AK11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AL11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AM11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AN11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AO11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AP11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AQ11" s="2" t="s">
+      <c r="AQ11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1931,64 +1928,64 @@
       <c r="T12">
         <v>23</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="X12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Y12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AB12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AC12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AD12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AE12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AF12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AG12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AH12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AI12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AK12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AL12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AM12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AN12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AO12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AP12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AQ12" s="2" t="s">
+      <c r="AQ12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2053,64 +2050,64 @@
       <c r="T13">
         <v>29</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="X13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Y13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB13" s="2" t="s">
+      <c r="AB13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AC13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AD13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AE13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AF13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG13" s="2" t="s">
+      <c r="AG13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AH13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="AI13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AK13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AL13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AM13" s="2" t="s">
+      <c r="AM13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AN13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AO13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AP13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ13" s="2" t="s">
+      <c r="AQ13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2175,64 +2172,64 @@
       <c r="T14">
         <v>36</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="X14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Y14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="Z14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AB14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AC14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AD14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AE14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AF14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AG14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AH14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AI14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AJ14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AK14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AL14" s="2" t="s">
+      <c r="AL14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM14" s="2" t="s">
+      <c r="AM14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AN14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AO14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AP14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2297,64 +2294,64 @@
       <c r="T15">
         <v>43</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="X15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="Z15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AA15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AB15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AC15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AD15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AE15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AF15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AG15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AH15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AI15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AK15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AL15" s="2" t="s">
+      <c r="AL15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AM15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN15" s="2" t="s">
+      <c r="AN15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AO15" s="2" t="s">
+      <c r="AO15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AP15" s="2" t="s">
+      <c r="AP15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AQ15" s="2" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2419,64 +2416,64 @@
       <c r="T16">
         <v>43</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Y16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AA16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="2" t="s">
+      <c r="AB16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AC16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AD16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AE16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AF16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AG16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AH16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AI16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AK16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AL16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AM16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AO16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AP16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AQ16" s="2" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2541,64 +2538,64 @@
       <c r="T17">
         <v>49</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Y17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AA17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AB17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AC17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AD17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AE17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AF17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AG17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AH17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AI17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="2" t="s">
+      <c r="AK17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AL17" s="2" t="s">
+      <c r="AL17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AM17" s="2" t="s">
+      <c r="AM17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AN17" s="2" t="s">
+      <c r="AN17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AO17" s="2" t="s">
+      <c r="AO17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AP17" s="2" t="s">
+      <c r="AP17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AQ17" s="2" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2663,64 +2660,64 @@
       <c r="T18">
         <v>56</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Y18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="Z18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AA18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB18" s="2" t="s">
+      <c r="AB18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AC18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AD18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AE18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AF18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG18" s="2" t="s">
+      <c r="AG18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AH18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AI18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AK18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL18" s="2" t="s">
+      <c r="AL18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM18" s="2" t="s">
+      <c r="AM18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AN18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AO18" s="2" t="s">
+      <c r="AO18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AP18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2785,64 +2782,64 @@
       <c r="T19">
         <v>56</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AA19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AB19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AC19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AE19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AF19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AG19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AH19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI19" s="2" t="s">
+      <c r="AI19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AK19" s="2" t="s">
+      <c r="AK19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AL19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM19" s="2" t="s">
+      <c r="AM19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AN19" s="2" t="s">
+      <c r="AN19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AO19" s="2" t="s">
+      <c r="AO19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AP19" s="2" t="s">
+      <c r="AP19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AQ19" s="2" t="s">
+      <c r="AQ19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2907,64 +2904,64 @@
       <c r="T20">
         <v>56</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA20" s="2" t="s">
+      <c r="AA20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB20" s="2" t="s">
+      <c r="AB20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AC20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AD20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AE20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AF20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AG20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AH20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI20" s="2" t="s">
+      <c r="AI20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ20" s="2" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AK20" s="2" t="s">
+      <c r="AK20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL20" s="2" t="s">
+      <c r="AL20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AM20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AN20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AO20" s="2" t="s">
+      <c r="AO20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AP20" s="2" t="s">
+      <c r="AP20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AQ20" s="2" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3029,73 +3026,1322 @@
       <c r="T21">
         <v>56</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="Z21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AA21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB21" s="2" t="s">
+      <c r="AB21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AC21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AF21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="AG21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AH21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AI21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AK21" s="2" t="s">
+      <c r="AK21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL21" s="2" t="s">
+      <c r="AL21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM21" s="2" t="s">
+      <c r="AM21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AN21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AO21" s="2" t="s">
+      <c r="AO21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AP21" s="2" t="s">
+      <c r="AP21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="2" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.4">
-      <c r="AE22" s="1"/>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31">
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>-1</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <v>22</v>
+      </c>
+      <c r="P32">
+        <v>22</v>
+      </c>
+      <c r="Q32">
+        <v>-1</v>
+      </c>
+      <c r="R32">
+        <v>-1</v>
+      </c>
+      <c r="S32">
+        <v>-1</v>
+      </c>
+      <c r="T32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>22</v>
+      </c>
+      <c r="O33">
+        <v>22</v>
+      </c>
+      <c r="P33">
+        <v>22</v>
+      </c>
+      <c r="Q33">
+        <v>-1</v>
+      </c>
+      <c r="R33">
+        <v>23</v>
+      </c>
+      <c r="S33">
+        <v>23</v>
+      </c>
+      <c r="T33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>-1</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>22</v>
+      </c>
+      <c r="O34">
+        <v>22</v>
+      </c>
+      <c r="P34">
+        <v>22</v>
+      </c>
+      <c r="Q34">
+        <v>-1</v>
+      </c>
+      <c r="R34">
+        <v>23</v>
+      </c>
+      <c r="S34">
+        <v>23</v>
+      </c>
+      <c r="T34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>-1</v>
+      </c>
+      <c r="O35">
+        <v>-1</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>-1</v>
+      </c>
+      <c r="R35">
+        <v>-1</v>
+      </c>
+      <c r="S35">
+        <v>-1</v>
+      </c>
+      <c r="T35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
+      </c>
+      <c r="K36">
+        <v>33</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="O36">
+        <v>35</v>
+      </c>
+      <c r="P36">
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <v>-1</v>
+      </c>
+      <c r="R36">
+        <v>36</v>
+      </c>
+      <c r="S36">
+        <v>36</v>
+      </c>
+      <c r="T36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
+      </c>
+      <c r="O37">
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <v>-1</v>
+      </c>
+      <c r="Q37">
+        <v>-1</v>
+      </c>
+      <c r="R37">
+        <v>-1</v>
+      </c>
+      <c r="S37">
+        <v>-1</v>
+      </c>
+      <c r="T37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+      <c r="O38">
+        <v>-1</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>43</v>
+      </c>
+      <c r="S38">
+        <v>43</v>
+      </c>
+      <c r="T38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <v>44</v>
+      </c>
+      <c r="G39">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>-1</v>
+      </c>
+      <c r="S39">
+        <v>-1</v>
+      </c>
+      <c r="T39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>-1</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>51</v>
+      </c>
+      <c r="J40">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>-1</v>
+      </c>
+      <c r="N40">
+        <v>55</v>
+      </c>
+      <c r="O40">
+        <v>55</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>56</v>
+      </c>
+      <c r="R40">
+        <v>56</v>
+      </c>
+      <c r="S40">
+        <v>56</v>
+      </c>
+      <c r="T40">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>51</v>
+      </c>
+      <c r="J41">
+        <v>51</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41">
+        <v>55</v>
+      </c>
+      <c r="O41">
+        <v>55</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>56</v>
+      </c>
+      <c r="R41">
+        <v>56</v>
+      </c>
+      <c r="S41">
+        <v>56</v>
+      </c>
+      <c r="T41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>51</v>
+      </c>
+      <c r="J42">
+        <v>51</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
+      <c r="N42">
+        <v>55</v>
+      </c>
+      <c r="O42">
+        <v>55</v>
+      </c>
+      <c r="P42">
+        <v>-1</v>
+      </c>
+      <c r="Q42">
+        <v>56</v>
+      </c>
+      <c r="R42">
+        <v>56</v>
+      </c>
+      <c r="S42">
+        <v>56</v>
+      </c>
+      <c r="T42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <v>51</v>
+      </c>
+      <c r="J43">
+        <v>51</v>
+      </c>
+      <c r="K43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>55</v>
+      </c>
+      <c r="O43">
+        <v>55</v>
+      </c>
+      <c r="P43">
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>56</v>
+      </c>
+      <c r="R43">
+        <v>56</v>
+      </c>
+      <c r="S43">
+        <v>56</v>
+      </c>
+      <c r="T43">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:T21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:T43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/memo.xlsx
+++ b/memo.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuram\Desktop\Programming\13_Rust\ahc\ahc023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE86AA5-6558-4001-B122-7E9379074641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDECE074-F8EA-47F9-AE8A-AE8C83504DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="75" windowWidth="35430" windowHeight="20280" xr2:uid="{A7B136F1-26C6-48A1-BAED-A0EA48E3885A}"/>
+    <workbookView xWindow="16845" yWindow="0" windowWidth="34860" windowHeight="20985" xr2:uid="{A7B136F1-26C6-48A1-BAED-A0EA48E3885A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20" sheetId="5" r:id="rId1"/>
+    <sheet name="4" sheetId="4" r:id="rId2"/>
+    <sheet name="0" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="47">
   <si>
     <t>(15, 8)</t>
   </si>
@@ -591,10 +594,7894 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9A1B25-67BB-4772-A4A3-B5DE1B3E3721}">
+  <dimension ref="A1:AQ43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="24" max="43" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>2</v>
+      </c>
+      <c r="AA1">
+        <v>3</v>
+      </c>
+      <c r="AB1">
+        <v>4</v>
+      </c>
+      <c r="AC1">
+        <v>5</v>
+      </c>
+      <c r="AD1">
+        <v>6</v>
+      </c>
+      <c r="AE1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <v>-1</v>
+      </c>
+      <c r="T25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26">
+        <v>-1</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>-1</v>
+      </c>
+      <c r="S26">
+        <v>22</v>
+      </c>
+      <c r="T26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>29</v>
+      </c>
+      <c r="K27">
+        <v>29</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>34</v>
+      </c>
+      <c r="R27">
+        <v>34</v>
+      </c>
+      <c r="S27">
+        <v>22</v>
+      </c>
+      <c r="T27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>29</v>
+      </c>
+      <c r="K28">
+        <v>29</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <v>-1</v>
+      </c>
+      <c r="P28">
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>-1</v>
+      </c>
+      <c r="R28">
+        <v>-1</v>
+      </c>
+      <c r="S28">
+        <v>22</v>
+      </c>
+      <c r="T28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="P29">
+        <v>-1</v>
+      </c>
+      <c r="Q29">
+        <v>48</v>
+      </c>
+      <c r="R29">
+        <v>48</v>
+      </c>
+      <c r="S29">
+        <v>22</v>
+      </c>
+      <c r="T29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>49</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>52</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30">
+        <v>-1</v>
+      </c>
+      <c r="O30">
+        <v>55</v>
+      </c>
+      <c r="P30">
+        <v>56</v>
+      </c>
+      <c r="Q30">
+        <v>56</v>
+      </c>
+      <c r="R30">
+        <v>56</v>
+      </c>
+      <c r="S30">
+        <v>56</v>
+      </c>
+      <c r="T30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>57</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>64</v>
+      </c>
+      <c r="M31">
+        <v>64</v>
+      </c>
+      <c r="N31">
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <v>66</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+      <c r="R31">
+        <v>-1</v>
+      </c>
+      <c r="S31">
+        <v>-1</v>
+      </c>
+      <c r="T31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>71</v>
+      </c>
+      <c r="H32">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>75</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+      <c r="N32">
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <v>-1</v>
+      </c>
+      <c r="P32">
+        <v>-1</v>
+      </c>
+      <c r="Q32">
+        <v>-1</v>
+      </c>
+      <c r="R32">
+        <v>-1</v>
+      </c>
+      <c r="S32">
+        <v>-1</v>
+      </c>
+      <c r="T32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <v>71</v>
+      </c>
+      <c r="H33">
+        <v>71</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>84</v>
+      </c>
+      <c r="N33">
+        <v>-1</v>
+      </c>
+      <c r="O33">
+        <v>86</v>
+      </c>
+      <c r="P33">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>88</v>
+      </c>
+      <c r="R33">
+        <v>88</v>
+      </c>
+      <c r="S33">
+        <v>-1</v>
+      </c>
+      <c r="T33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>90</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>95</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>98</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <v>-1</v>
+      </c>
+      <c r="P34">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>-1</v>
+      </c>
+      <c r="R34">
+        <v>-1</v>
+      </c>
+      <c r="S34">
+        <v>-1</v>
+      </c>
+      <c r="T34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="G35">
+        <v>95</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <v>98</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>110</v>
+      </c>
+      <c r="O35">
+        <v>111</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>113</v>
+      </c>
+      <c r="R35">
+        <v>114</v>
+      </c>
+      <c r="S35">
+        <v>-1</v>
+      </c>
+      <c r="T35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>116</v>
+      </c>
+      <c r="B36">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <v>116</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36">
+        <v>-1</v>
+      </c>
+      <c r="Q36">
+        <v>-1</v>
+      </c>
+      <c r="R36">
+        <v>114</v>
+      </c>
+      <c r="S36">
+        <v>-1</v>
+      </c>
+      <c r="T36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <v>116</v>
+      </c>
+      <c r="C37">
+        <v>116</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37">
+        <v>131</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>136</v>
+      </c>
+      <c r="N37">
+        <v>137</v>
+      </c>
+      <c r="O37">
+        <v>138</v>
+      </c>
+      <c r="P37">
+        <v>-1</v>
+      </c>
+      <c r="Q37">
+        <v>-1</v>
+      </c>
+      <c r="R37">
+        <v>141</v>
+      </c>
+      <c r="S37">
+        <v>142</v>
+      </c>
+      <c r="T37">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>116</v>
+      </c>
+      <c r="C38">
+        <v>116</v>
+      </c>
+      <c r="D38">
+        <v>143</v>
+      </c>
+      <c r="E38">
+        <v>143</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>145</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>147</v>
+      </c>
+      <c r="J38">
+        <v>147</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+      <c r="O38">
+        <v>138</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>141</v>
+      </c>
+      <c r="S38">
+        <v>152</v>
+      </c>
+      <c r="T38">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>116</v>
+      </c>
+      <c r="B39">
+        <v>116</v>
+      </c>
+      <c r="C39">
+        <v>116</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>154</v>
+      </c>
+      <c r="F39">
+        <v>155</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>157</v>
+      </c>
+      <c r="I39">
+        <v>157</v>
+      </c>
+      <c r="J39">
+        <v>158</v>
+      </c>
+      <c r="K39">
+        <v>158</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>160</v>
+      </c>
+      <c r="N39">
+        <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>138</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>162</v>
+      </c>
+      <c r="S39">
+        <v>152</v>
+      </c>
+      <c r="T39">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>-1</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>166</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <v>158</v>
+      </c>
+      <c r="K40">
+        <v>158</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>160</v>
+      </c>
+      <c r="N40">
+        <v>-1</v>
+      </c>
+      <c r="O40">
+        <v>138</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>162</v>
+      </c>
+      <c r="S40">
+        <v>152</v>
+      </c>
+      <c r="T40">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>166</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>170</v>
+      </c>
+      <c r="J41">
+        <v>171</v>
+      </c>
+      <c r="K41">
+        <v>171</v>
+      </c>
+      <c r="L41">
+        <v>171</v>
+      </c>
+      <c r="M41">
+        <v>171</v>
+      </c>
+      <c r="N41">
+        <v>171</v>
+      </c>
+      <c r="O41">
+        <v>-1</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>-1</v>
+      </c>
+      <c r="R41">
+        <v>-1</v>
+      </c>
+      <c r="S41">
+        <v>-1</v>
+      </c>
+      <c r="T41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>176</v>
+      </c>
+      <c r="B42">
+        <v>176</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>179</v>
+      </c>
+      <c r="F42">
+        <v>179</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>182</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
+      <c r="N42">
+        <v>-1</v>
+      </c>
+      <c r="O42">
+        <v>184</v>
+      </c>
+      <c r="P42">
+        <v>-1</v>
+      </c>
+      <c r="Q42">
+        <v>186</v>
+      </c>
+      <c r="R42">
+        <v>187</v>
+      </c>
+      <c r="S42">
+        <v>-1</v>
+      </c>
+      <c r="T42">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>176</v>
+      </c>
+      <c r="B43">
+        <v>176</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>179</v>
+      </c>
+      <c r="F43">
+        <v>179</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <v>182</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>183</v>
+      </c>
+      <c r="L43">
+        <v>183</v>
+      </c>
+      <c r="M43">
+        <v>183</v>
+      </c>
+      <c r="N43">
+        <v>183</v>
+      </c>
+      <c r="O43">
+        <v>184</v>
+      </c>
+      <c r="P43">
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>186</v>
+      </c>
+      <c r="R43">
+        <v>187</v>
+      </c>
+      <c r="S43">
+        <v>-1</v>
+      </c>
+      <c r="T43">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A2:T21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:T43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A766E09-F77A-4734-A29E-D57919588812}">
+  <dimension ref="A1:AQ43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:U43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="24" max="43" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>2</v>
+      </c>
+      <c r="AA1">
+        <v>3</v>
+      </c>
+      <c r="AB1">
+        <v>4</v>
+      </c>
+      <c r="AC1">
+        <v>5</v>
+      </c>
+      <c r="AD1">
+        <v>6</v>
+      </c>
+      <c r="AE1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <v>12</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <v>15</v>
+      </c>
+      <c r="T24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <v>-1</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <v>15</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26">
+        <v>-1</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>-1</v>
+      </c>
+      <c r="S26">
+        <v>-1</v>
+      </c>
+      <c r="T26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <v>36</v>
+      </c>
+      <c r="Q27">
+        <v>37</v>
+      </c>
+      <c r="R27">
+        <v>-1</v>
+      </c>
+      <c r="S27">
+        <v>38</v>
+      </c>
+      <c r="T27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>44</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>-1</v>
+      </c>
+      <c r="N28">
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <v>-1</v>
+      </c>
+      <c r="P28">
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>37</v>
+      </c>
+      <c r="R28">
+        <v>-1</v>
+      </c>
+      <c r="S28">
+        <v>49</v>
+      </c>
+      <c r="T28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="P29">
+        <v>59</v>
+      </c>
+      <c r="Q29">
+        <v>37</v>
+      </c>
+      <c r="R29">
+        <v>-1</v>
+      </c>
+      <c r="S29">
+        <v>49</v>
+      </c>
+      <c r="T29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>65</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>69</v>
+      </c>
+      <c r="L30">
+        <v>69</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30">
+        <v>71</v>
+      </c>
+      <c r="O30">
+        <v>71</v>
+      </c>
+      <c r="P30">
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <v>73</v>
+      </c>
+      <c r="R30">
+        <v>-1</v>
+      </c>
+      <c r="S30">
+        <v>74</v>
+      </c>
+      <c r="T30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>65</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>69</v>
+      </c>
+      <c r="L31">
+        <v>69</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31">
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+      <c r="R31">
+        <v>-1</v>
+      </c>
+      <c r="S31">
+        <v>-1</v>
+      </c>
+      <c r="T31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>-1</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <v>84</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>87</v>
+      </c>
+      <c r="M32">
+        <v>87</v>
+      </c>
+      <c r="N32">
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <v>-1</v>
+      </c>
+      <c r="P32">
+        <v>-1</v>
+      </c>
+      <c r="Q32">
+        <v>90</v>
+      </c>
+      <c r="R32">
+        <v>90</v>
+      </c>
+      <c r="S32">
+        <v>91</v>
+      </c>
+      <c r="T32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <v>-1</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>-1</v>
+      </c>
+      <c r="R33">
+        <v>-1</v>
+      </c>
+      <c r="S33">
+        <v>-1</v>
+      </c>
+      <c r="T33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>-1</v>
+      </c>
+      <c r="B34">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>121</v>
+      </c>
+      <c r="O34">
+        <v>121</v>
+      </c>
+      <c r="P34">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>123</v>
+      </c>
+      <c r="R34">
+        <v>-1</v>
+      </c>
+      <c r="S34">
+        <v>107</v>
+      </c>
+      <c r="T34">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="G35">
+        <v>126</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>128</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>130</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>132</v>
+      </c>
+      <c r="N35">
+        <v>133</v>
+      </c>
+      <c r="O35">
+        <v>134</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>-1</v>
+      </c>
+      <c r="R35">
+        <v>-1</v>
+      </c>
+      <c r="S35">
+        <v>-1</v>
+      </c>
+      <c r="T35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>138</v>
+      </c>
+      <c r="B36">
+        <v>138</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36">
+        <v>-1</v>
+      </c>
+      <c r="Q36">
+        <v>-1</v>
+      </c>
+      <c r="R36">
+        <v>-1</v>
+      </c>
+      <c r="S36">
+        <v>-1</v>
+      </c>
+      <c r="T36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>138</v>
+      </c>
+      <c r="B37">
+        <v>138</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>152</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>154</v>
+      </c>
+      <c r="G37">
+        <v>154</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>158</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>160</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
+      </c>
+      <c r="O37">
+        <v>162</v>
+      </c>
+      <c r="P37">
+        <v>-1</v>
+      </c>
+      <c r="Q37">
+        <v>164</v>
+      </c>
+      <c r="R37">
+        <v>-1</v>
+      </c>
+      <c r="S37">
+        <v>165</v>
+      </c>
+      <c r="T37">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>171</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>158</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>160</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+      <c r="O38">
+        <v>162</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>174</v>
+      </c>
+      <c r="R38">
+        <v>-1</v>
+      </c>
+      <c r="S38">
+        <v>175</v>
+      </c>
+      <c r="T38">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>176</v>
+      </c>
+      <c r="B39">
+        <v>176</v>
+      </c>
+      <c r="C39">
+        <v>177</v>
+      </c>
+      <c r="D39">
+        <v>177</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>179</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>171</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>183</v>
+      </c>
+      <c r="N39">
+        <v>183</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>174</v>
+      </c>
+      <c r="R39">
+        <v>-1</v>
+      </c>
+      <c r="S39">
+        <v>175</v>
+      </c>
+      <c r="T39">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>176</v>
+      </c>
+      <c r="C40">
+        <v>177</v>
+      </c>
+      <c r="D40">
+        <v>177</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>189</v>
+      </c>
+      <c r="I40">
+        <v>189</v>
+      </c>
+      <c r="J40">
+        <v>190</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>-1</v>
+      </c>
+      <c r="N40">
+        <v>-1</v>
+      </c>
+      <c r="O40">
+        <v>-1</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>-1</v>
+      </c>
+      <c r="S40">
+        <v>-1</v>
+      </c>
+      <c r="T40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>176</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>198</v>
+      </c>
+      <c r="D41">
+        <v>198</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>187</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>189</v>
+      </c>
+      <c r="I41">
+        <v>189</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <v>202</v>
+      </c>
+      <c r="N41">
+        <v>202</v>
+      </c>
+      <c r="O41">
+        <v>-1</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>-1</v>
+      </c>
+      <c r="R41">
+        <v>-1</v>
+      </c>
+      <c r="S41">
+        <v>-1</v>
+      </c>
+      <c r="T41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>176</v>
+      </c>
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <v>198</v>
+      </c>
+      <c r="D42">
+        <v>198</v>
+      </c>
+      <c r="E42">
+        <v>207</v>
+      </c>
+      <c r="F42">
+        <v>207</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>189</v>
+      </c>
+      <c r="I42">
+        <v>189</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>209</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>211</v>
+      </c>
+      <c r="N42">
+        <v>211</v>
+      </c>
+      <c r="O42">
+        <v>-1</v>
+      </c>
+      <c r="P42">
+        <v>-1</v>
+      </c>
+      <c r="Q42">
+        <v>214</v>
+      </c>
+      <c r="R42">
+        <v>-1</v>
+      </c>
+      <c r="S42">
+        <v>216</v>
+      </c>
+      <c r="T42">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>176</v>
+      </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <v>198</v>
+      </c>
+      <c r="D43">
+        <v>198</v>
+      </c>
+      <c r="E43">
+        <v>207</v>
+      </c>
+      <c r="F43">
+        <v>207</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>189</v>
+      </c>
+      <c r="I43">
+        <v>189</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>209</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>211</v>
+      </c>
+      <c r="N43">
+        <v>211</v>
+      </c>
+      <c r="O43">
+        <v>-1</v>
+      </c>
+      <c r="P43">
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>214</v>
+      </c>
+      <c r="R43">
+        <v>-1</v>
+      </c>
+      <c r="S43">
+        <v>216</v>
+      </c>
+      <c r="T43">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A2:T21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:T43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20F61E6-BE51-4606-90C4-31EB7C76E645}">
+  <dimension ref="A1:AQ43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:U43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="24" max="43" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>2</v>
+      </c>
+      <c r="AA1">
+        <v>3</v>
+      </c>
+      <c r="AB1">
+        <v>4</v>
+      </c>
+      <c r="AC1">
+        <v>5</v>
+      </c>
+      <c r="AD1">
+        <v>6</v>
+      </c>
+      <c r="AE1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="X21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <v>11</v>
+      </c>
+      <c r="T24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <v>11</v>
+      </c>
+      <c r="T25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26">
+        <v>-1</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>-1</v>
+      </c>
+      <c r="S26">
+        <v>23</v>
+      </c>
+      <c r="T26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <v>31</v>
+      </c>
+      <c r="Q27">
+        <v>-1</v>
+      </c>
+      <c r="R27">
+        <v>33</v>
+      </c>
+      <c r="S27">
+        <v>-1</v>
+      </c>
+      <c r="T27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>-1</v>
+      </c>
+      <c r="N28">
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <v>-1</v>
+      </c>
+      <c r="P28">
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>-1</v>
+      </c>
+      <c r="R28">
+        <v>-1</v>
+      </c>
+      <c r="S28">
+        <v>-1</v>
+      </c>
+      <c r="T28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="P29">
+        <v>54</v>
+      </c>
+      <c r="Q29">
+        <v>-1</v>
+      </c>
+      <c r="R29">
+        <v>56</v>
+      </c>
+      <c r="S29">
+        <v>-1</v>
+      </c>
+      <c r="T29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <v>60</v>
+      </c>
+      <c r="K30">
+        <v>60</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>62</v>
+      </c>
+      <c r="N30">
+        <v>-1</v>
+      </c>
+      <c r="O30">
+        <v>-1</v>
+      </c>
+      <c r="P30">
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>67</v>
+      </c>
+      <c r="S30">
+        <v>67</v>
+      </c>
+      <c r="T30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>74</v>
+      </c>
+      <c r="M31">
+        <v>75</v>
+      </c>
+      <c r="N31">
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <v>77</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+      <c r="R31">
+        <v>67</v>
+      </c>
+      <c r="S31">
+        <v>67</v>
+      </c>
+      <c r="T31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>79</v>
+      </c>
+      <c r="K32">
+        <v>79</v>
+      </c>
+      <c r="L32">
+        <v>79</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+      <c r="N32">
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <v>77</v>
+      </c>
+      <c r="P32">
+        <v>-1</v>
+      </c>
+      <c r="Q32">
+        <v>-1</v>
+      </c>
+      <c r="R32">
+        <v>67</v>
+      </c>
+      <c r="S32">
+        <v>67</v>
+      </c>
+      <c r="T32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33">
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>84</v>
+      </c>
+      <c r="E33">
+        <v>85</v>
+      </c>
+      <c r="F33">
+        <v>86</v>
+      </c>
+      <c r="G33">
+        <v>86</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <v>-1</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>-1</v>
+      </c>
+      <c r="R33">
+        <v>-1</v>
+      </c>
+      <c r="S33">
+        <v>-1</v>
+      </c>
+      <c r="T33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>-1</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>99</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34">
+        <v>101</v>
+      </c>
+      <c r="P34">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>-1</v>
+      </c>
+      <c r="R34">
+        <v>104</v>
+      </c>
+      <c r="S34">
+        <v>104</v>
+      </c>
+      <c r="T34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>107</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>109</v>
+      </c>
+      <c r="G35">
+        <v>109</v>
+      </c>
+      <c r="H35">
+        <v>110</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <v>112</v>
+      </c>
+      <c r="K35">
+        <v>112</v>
+      </c>
+      <c r="L35">
+        <v>99</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35">
+        <v>-1</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>-1</v>
+      </c>
+      <c r="R35">
+        <v>-1</v>
+      </c>
+      <c r="S35">
+        <v>-1</v>
+      </c>
+      <c r="T35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36">
+        <v>105</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>107</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>120</v>
+      </c>
+      <c r="N36">
+        <v>121</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36">
+        <v>-1</v>
+      </c>
+      <c r="Q36">
+        <v>-1</v>
+      </c>
+      <c r="R36">
+        <v>-1</v>
+      </c>
+      <c r="S36">
+        <v>-1</v>
+      </c>
+      <c r="T36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>126</v>
+      </c>
+      <c r="B37">
+        <v>126</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>128</v>
+      </c>
+      <c r="E37">
+        <v>128</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37">
+        <v>130</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>135</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
+      </c>
+      <c r="O37">
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <v>136</v>
+      </c>
+      <c r="Q37">
+        <v>137</v>
+      </c>
+      <c r="R37">
+        <v>138</v>
+      </c>
+      <c r="S37">
+        <v>138</v>
+      </c>
+      <c r="T37">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>126</v>
+      </c>
+      <c r="B38">
+        <v>126</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>128</v>
+      </c>
+      <c r="E38">
+        <v>128</v>
+      </c>
+      <c r="F38">
+        <v>139</v>
+      </c>
+      <c r="G38">
+        <v>140</v>
+      </c>
+      <c r="H38">
+        <v>140</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>142</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>143</v>
+      </c>
+      <c r="M38">
+        <v>144</v>
+      </c>
+      <c r="N38">
+        <v>144</v>
+      </c>
+      <c r="O38">
+        <v>144</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>137</v>
+      </c>
+      <c r="R38">
+        <v>138</v>
+      </c>
+      <c r="S38">
+        <v>138</v>
+      </c>
+      <c r="T38">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>148</v>
+      </c>
+      <c r="E39">
+        <v>148</v>
+      </c>
+      <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="G39">
+        <v>140</v>
+      </c>
+      <c r="H39">
+        <v>140</v>
+      </c>
+      <c r="I39">
+        <v>150</v>
+      </c>
+      <c r="J39">
+        <v>150</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>143</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>154</v>
+      </c>
+      <c r="S39">
+        <v>154</v>
+      </c>
+      <c r="T39">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>155</v>
+      </c>
+      <c r="B40">
+        <v>155</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>150</v>
+      </c>
+      <c r="J40">
+        <v>150</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>160</v>
+      </c>
+      <c r="N40">
+        <v>160</v>
+      </c>
+      <c r="O40">
+        <v>160</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>162</v>
+      </c>
+      <c r="R40">
+        <v>154</v>
+      </c>
+      <c r="S40">
+        <v>154</v>
+      </c>
+      <c r="T40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>-1</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>169</v>
+      </c>
+      <c r="L41">
+        <v>169</v>
+      </c>
+      <c r="M41">
+        <v>170</v>
+      </c>
+      <c r="N41">
+        <v>170</v>
+      </c>
+      <c r="O41">
+        <v>170</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>172</v>
+      </c>
+      <c r="R41">
+        <v>-1</v>
+      </c>
+      <c r="S41">
+        <v>-1</v>
+      </c>
+      <c r="T41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>174</v>
+      </c>
+      <c r="B42">
+        <v>174</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>176</v>
+      </c>
+      <c r="E42">
+        <v>176</v>
+      </c>
+      <c r="F42">
+        <v>-1</v>
+      </c>
+      <c r="G42">
+        <v>178</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>180</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>181</v>
+      </c>
+      <c r="L42">
+        <v>182</v>
+      </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
+      <c r="N42">
+        <v>-1</v>
+      </c>
+      <c r="O42">
+        <v>-1</v>
+      </c>
+      <c r="P42">
+        <v>-1</v>
+      </c>
+      <c r="Q42">
+        <v>-1</v>
+      </c>
+      <c r="R42">
+        <v>-1</v>
+      </c>
+      <c r="S42">
+        <v>187</v>
+      </c>
+      <c r="T42">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>174</v>
+      </c>
+      <c r="B43">
+        <v>174</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>176</v>
+      </c>
+      <c r="E43">
+        <v>176</v>
+      </c>
+      <c r="F43">
+        <v>-1</v>
+      </c>
+      <c r="G43">
+        <v>178</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <v>180</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>181</v>
+      </c>
+      <c r="L43">
+        <v>182</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>183</v>
+      </c>
+      <c r="O43">
+        <v>183</v>
+      </c>
+      <c r="P43">
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>185</v>
+      </c>
+      <c r="R43">
+        <v>-1</v>
+      </c>
+      <c r="S43">
+        <v>187</v>
+      </c>
+      <c r="T43">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A2:T21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:T43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE99191-1CA3-4A8E-ACD9-6FFA0CAD4194}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
